--- a/desafio-excel.xlsx
+++ b/desafio-excel.xlsx
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>Data</t>
   </si>
@@ -286,6 +286,9 @@
       <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -307,6 +310,12 @@
           <bgColor rgb="FFFF3300"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -350,20 +359,11 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleDark2 2" pivot="0" table="0" count="10">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -646,7 +646,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[desafio=excel.xlsx]Controller!Tabela dinâmica1</c:name>
+    <c:name>[desafio-excel.xlsx]Controller!Tabela dinâmica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -819,29 +819,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Controller!$E$7:$E$9</c:f>
+              <c:f>Controller!$E$7:$E$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Alimentação</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Lazer</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>Estudo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transporte</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Controller!$F$7:$F$9</c:f>
+              <c:f>Controller!$F$7:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1005,7 +1017,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[desafio=excel.xlsx]Controller!Tabela dinâmica2</c:name>
+    <c:name>[desafio-excel.xlsx]Controller!Tabela dinâmica2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1631,7 +1643,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[desafio=excel.xlsx]Controller!Tabela dinâmica2</c:name>
+    <c:name>[desafio-excel.xlsx]Controller!Tabela dinâmica2</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -2076,7 +2088,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[desafio=excel.xlsx]Controller!Tabela dinâmica1</c:name>
+    <c:name>[desafio-excel.xlsx]Controller!Tabela dinâmica1</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -2360,29 +2372,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Controller!$E$7:$E$9</c:f>
+              <c:f>Controller!$E$7:$E$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Alimentação</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Lazer</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>Estudo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transporte</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Controller!$F$7:$F$9</c:f>
+              <c:f>Controller!$F$7:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2770,6 +2794,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="38985071"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6157,8 +6182,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>127747</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="mês"/>
@@ -6175,7 +6200,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6664,8 +6689,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="19" name="mês 1"/>
@@ -6682,7 +6707,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7322,7 +7347,101 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="E6:F11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item h="1" m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" m="1" x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Valor" fld="5" baseField="2" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B25:C27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -7415,94 +7534,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="E6:F9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item h="1" m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Valor" fld="5" baseField="2" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_mês" sourceName="mês">
   <pivotTables>
@@ -7542,14 +7573,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tbl_operations" displayName="tbl_operations" ref="A1:H10" totalsRowShown="0">
   <autoFilter ref="A1:H10"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Data" dataDxfId="6"/>
-    <tableColumn id="8" name="mês" dataDxfId="5">
+    <tableColumn id="1" name="Data" dataDxfId="5"/>
+    <tableColumn id="8" name="mês" dataDxfId="4">
       <calculatedColumnFormula>MONTH(tbl_operations[[#This Row],[Data]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Tipo"/>
     <tableColumn id="3" name="Categoria"/>
     <tableColumn id="4" name="Descrição"/>
-    <tableColumn id="5" name="Valor" dataDxfId="7"/>
+    <tableColumn id="5" name="Valor" dataDxfId="3"/>
     <tableColumn id="6" name="Operação Bancária"/>
     <tableColumn id="7" name="Status"/>
   </tableColumns>
@@ -7558,10 +7589,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="D4:E14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="D4:E14" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="D4:E14"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Data de Lançamento" dataDxfId="2"/>
+    <tableColumn id="1" name="Data de Lançamento" dataDxfId="1"/>
     <tableColumn id="2" name="Depósito Reservado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8228,8 +8259,8 @@
   </sheetPr>
   <dimension ref="B4:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E7:E8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8274,10 +8305,26 @@
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="2">
-        <v>1050</v>
+      <c r="F11" s="2">
+        <v>1699</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -8464,8 +8511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
